--- a/medicine/Sexualité et sexologie/Shudō/Shudō.xlsx
+++ b/medicine/Sexualité et sexologie/Shudō/Shudō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shud%C5%8D</t>
+          <t>Shudō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le shudō (衆道?) est la tradition japonaise d'une homosexualité de type pédérastique pratiquée au sein des samouraïs de l'époque médiévale jusqu'à la fin du XIXe siècle. Le terme est en fait l'abréviation de wakashudō (若衆道?), « la voie des jeunes hommes » (jeune (若, waka?) et la foule (衆, shû?)). Le terme dō (道?, voie, chemin) est apparenté au mot chinois tao, chemin menant à l'éveil.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shud%C5%8D</t>
+          <t>Shudō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ce soit en 1485 qu'apparaisse pour la première fois le terme shudō, la tradition homosexuelle au Japon lui est nettement antérieure, avec les relations amoureuses entre les moines bouddhistes et leurs novices (chigo). La légende veut que ce soit le bonze Kūkai (également connu sous le nom de Kōbō Daishi), fondateur de l'école bouddhique de Shingon, qui ait importé de Chine l'amour mâle et ses enseignements. Le nom du Mont Kōya (où subsiste encore aujourd'hui le monastère fondé par Kōbō Daishi) était souvent utilisé pour désigner les relations de type pédérastique jusqu'à la fin de l'époque pré-moderne.
 En dépit de la légende, des preuves antérieures de l'existence de liaisons homosexuelles au Japon peuvent être retrouvées parmi certains des tout premiers textes japonais, tels le Kojiki qui remonte au VIIIe siècle et le Nihon Shoki.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shud%C5%8D</t>
+          <t>Shudō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principes du shūdō font partie de la tradition littéraire du Japon ; on les trouve par exemple énoncés dans des ouvrages comme le Hagakure ou divers manuels destinés aux samouraïs. Par ses aspects pédagogiques, militaires et aristocratiques, le  shudō s'apparente fortement à la pédérastie grecque.
 La pratique en était tenue en haute estime et se voyait encouragée au sein du groupe des samouraïs.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shud%C5%8D</t>
+          <t>Shudō</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Héritage dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999, le réalisateur japonais Nagisa Ōshima réalise le film Tabou, traitant de l'homosexualité chez les samouraïs au XIXe siècle et qui aborde notamment le thème du shudō à travers le personnage de Sōzaburō (joué par Ryūhei Matsuda).
 </t>
